--- a/medicine/Premiers secours et secourisme/Brûlure_chimique/Brûlure_chimique.xlsx
+++ b/medicine/Premiers secours et secourisme/Brûlure_chimique/Brûlure_chimique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%BBlure_chimique</t>
+          <t>Brûlure_chimique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La brûlure chimique est une destruction partielle ou totale pouvant concerner la peau, des muqueuses (éventuellement internes), les parties molles des tissus, par un produit chimique caustique (généralement un acide fort ou une base forte) ou cytotoxique (généralement un vésicant). Elle se produit par contact direct avec la peau ou les muqueuses, par inhalation ou ingestion.
 Ce type de brûlure est grave car son action continue tant que la causticité du produit n'est pas épuisée, et tant que la cause de la brûlure n'a pas été chimiquement neutralisée à la juste mesure.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%BBlure_chimique</t>
+          <t>Brûlure_chimique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les brûlures chimiques sont relativement fréquentes dans certains milieux professionnels (fabrication des produits chimiques, de pesticides, mines, médecine et laborantins, et domaines professionnels connexes). Mais elles sont plus nombreuses[réf. nécessaire] encore à la maison (par contact avec un acide, de la soude caustique (NaOH) ou du ciment[1] le plus souvent).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les brûlures chimiques sont relativement fréquentes dans certains milieux professionnels (fabrication des produits chimiques, de pesticides, mines, médecine et laborantins, et domaines professionnels connexes). Mais elles sont plus nombreuses[réf. nécessaire] encore à la maison (par contact avec un acide, de la soude caustique (NaOH) ou du ciment le plus souvent).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%BBlure_chimique</t>
+          <t>Brûlure_chimique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Processus biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une brûlure chimique est causée par la réaction d'un produit caustique sur les cellules. Celles-ci sont « rongées » par le produit, rapidement dans le cas d'un acide, plus lentement parfois, par exemple avec le ciment (et plus rapidement avec le ciment prompt qui peut être cause de graves brûlures chimiques[1]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une brûlure chimique est causée par la réaction d'un produit caustique sur les cellules. Celles-ci sont « rongées » par le produit, rapidement dans le cas d'un acide, plus lentement parfois, par exemple avec le ciment (et plus rapidement avec le ciment prompt qui peut être cause de graves brûlures chimiques).
 Une brûlure chimique peut parallèlement causer une intoxication et comme toutes les brûlures être source d'un état de choc (si elle est profonde ou étendue), et ensuite d'une surinfection bactérienne ou fongique.Certaines brûlures chimiques pourraient augmenter le risque de cancer. On a ainsi constaté dans les décennies qui ont suivi la Première Guerre mondiale que les brûlés à l'ypérite présentaient plus de risque de développer un cancer.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Br%C3%BBlure_chimique</t>
+          <t>Brûlure_chimique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les agents causant des brûlures chimiques sont de type :
 acides ou bases (le plus souvent il s'agit d'acide sulfurique (H2SO4), d'acide chlorhydrique (HCl), de soude caustique (NaOH), de la chaux (CaO)) ;
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Br%C3%BBlure_chimique</t>
+          <t>Brûlure_chimique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ils dépendent de l'organe touché, de la dose et du produit chimique en cause. 
 Les symptômes comprennent :
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Br%C3%BBlure_chimique</t>
+          <t>Brûlure_chimique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,16 +676,52 @@
           <t>Conduite à tenir</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle doit être décrite sur les étiquettes de sacs ou bouteilles de produits chimiques à risque, que ces produits soient professionnels ou ménagers. De manière générale, la conduite à tenir est la suivante :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elle doit être décrite sur les étiquettes de sacs ou bouteilles de produits chimiques à risque, que ces produits soient professionnels ou ménagers. De manière générale, la conduite à tenir est la suivante :
 protéger (éloigner la victime du produit, reboucher le flacon sans se brûler soi-même, …) ;
 enlever tous les vêtements contaminés en se protégeant (avec des gants, ou saisir les vêtements par l'intermédiaire d'un linge ou d'un sac plastique) ;
 laver la peau à grande eau (attention : uniquement si le produit ne réagit pas de façon violente avec l'eau !) afin d'éliminer le produit, et en évitant de contaminer une autre partie du corps ; en particulier en cas de projection dans l'œil, s'assurer que l'eau ne coule pas dans l'autre ;
 prévenir les secours (« 112 » dans l'Union européenne, le « 15 » en France, le 144 en Suisse et « 911 » au Canada), en précisant bien la partie touchée et le nom ou la nature du produit ;
-continuer le rinçage jusqu'à l'arrivée des secours.
-Cas d'une brûlure photochimique
-Certains produits chimiques ou sève de certaines plantes (Apiacées, Rutacées, figuier, etc) occasionnent de graves brûlures photochimiques[2].
+continuer le rinçage jusqu'à l'arrivée des secours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brûlure_chimique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Br%C3%BBlure_chimique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Conduite à tenir</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cas d'une brûlure photochimique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains produits chimiques ou sève de certaines plantes (Apiacées, Rutacées, figuier, etc) occasionnent de graves brûlures photochimiques.
 </t>
         </is>
       </c>
